--- a/docss/trend/netherlands/E_ataxy.xlsx
+++ b/docss/trend/netherlands/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:E17"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,202 +1714,188 @@
       <c r="D1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>8.1912469118833542E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
       </c>
       <c r="D2" s="9">
-        <v>4.035342950373888E-2</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>0.10032669827342033</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="9">
-        <v>7.6523800380527973E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D3" s="9">
-        <v>4.2457350064069033E-2</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>9.4782000407576561E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C4" s="9">
-        <v>4.771239310503006E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D4" s="9">
-        <v>2.9823961202055216E-2</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>0.10409443057142198</v>
+        <v>0.104</v>
       </c>
       <c r="C5" s="9">
-        <v>3.665649052709341E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D5" s="9">
-        <v>5.5566247552633286E-2</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>8.7397892959415913E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C6" s="9">
-        <v>5.7430163025856018E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>3.7437603808939457E-2</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>0.1237138332799077</v>
+        <v>0.124</v>
       </c>
       <c r="C7" s="9">
-        <v>6.4799138344824314E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D7" s="9">
-        <v>6.7223036661744118E-2</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
       <c r="B8" s="9">
-        <v>0.12690938333980739</v>
+        <v>0.127</v>
       </c>
       <c r="C8" s="9">
-        <v>7.2289762087166309E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D8" s="9">
-        <v>7.1336406748741865E-2</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>9.2525940621271729E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C9" s="9">
-        <v>7.5320547446608543E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D9" s="9">
-        <v>4.1796283796429634E-2</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>7.0146416546776891E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="9">
-        <v>4.2561566457152367E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>4.0930245537310839E-2</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>7.4908677954226732E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C11" s="9">
-        <v>5.5481022223830223E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D11" s="9">
-        <v>1.8913525156676769E-2</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>1.9E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>7.2121176868677139E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>1.7424137331545353E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>3.3753629773855209E-2</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2011</v>
       </c>
       <c r="B13" s="9">
-        <v>0.12161475699394941</v>
+        <v>0.122</v>
       </c>
       <c r="C13" s="9">
-        <v>3.8106677122414112E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D13" s="9">
-        <v>2.7434385381639004E-2</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>0.10215246048755944</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C14" s="9">
-        <v>2.4450079537928104E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D14" s="9">
-        <v>2.4542217142879963E-2</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
